--- a/app/data/pekerjaan.xlsx
+++ b/app/data/pekerjaan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,37 +446,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>job title</t>
+          <t>job_title</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>deskripsi</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Shopee</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Jakarta</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Staff</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Di Utamakan Lulusan S1</t>
+          <t>deksripsi</t>
         </is>
       </c>
     </row>
